--- a/data/prop_school_kids.xlsx
+++ b/data/prop_school_kids.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t xml:space="preserve">prop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prop_norm</t>
   </si>
   <si>
     <t xml:space="preserve">1001</t>
@@ -752,4283 +755,5453 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1890</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0.23585797218847</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.934268015870937</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1890</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>0.171904146936433</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.680937535365353</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>1890</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>0.220548135138882</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.873623506164917</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>1890</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>0.205299387733924</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.81322098149993</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>1890</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>0.202765281820587</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.803183016356366</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>1890</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
         <v>0.232487032487032</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.920915229372941</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>1890</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
         <v>0.218829194120628</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.866814528712842</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>1890</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
         <v>0.19304897314376</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.764695292812998</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>1890</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
         <v>0.214188509555648</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.848432096605171</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>1890</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
         <v>0.221852889500926</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.878791829532216</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>1890</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="n">
         <v>0.228106228264306</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.903562221411797</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>1890</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>1890</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>1890</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" t="n">
         <v>0.180602006688963</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.715391033366374</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>1890</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
         <v>0.194048713235294</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.768655409925164</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>1890</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="n">
         <v>0.193091031844267</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.764861893493519</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>1890</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" t="n">
         <v>0.201685820517154</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.798907111832934</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>1890</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" t="n">
         <v>0.23356666302089</v>
       </c>
+      <c r="D19" t="n">
+        <v>0.925191804242901</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>1890</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" t="n">
         <v>0.224015038771834</v>
       </c>
+      <c r="D20" t="n">
+        <v>0.887356419868528</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>1890</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" t="n">
         <v>0.221229246068253</v>
       </c>
+      <c r="D21" t="n">
+        <v>0.876321486439512</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>1890</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" t="n">
         <v>0.214771985451833</v>
       </c>
+      <c r="D22" t="n">
+        <v>0.850743330195366</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>1890</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="n">
         <v>0.179343935891002</v>
       </c>
+      <c r="D23" t="n">
+        <v>0.710407630442441</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>1890</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="n">
         <v>0.214216212170355</v>
       </c>
+      <c r="D24" t="n">
+        <v>0.848541830724552</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>1890</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" t="n">
         <v>0.237212586610177</v>
       </c>
+      <c r="D25" t="n">
+        <v>0.939633842246425</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>1890</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" t="n">
         <v>0.209273947528981</v>
       </c>
+      <c r="D26" t="n">
+        <v>0.82896479570826</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>1890</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" t="n">
         <v>0.216622162883845</v>
       </c>
+      <c r="D27" t="n">
+        <v>0.858072154327858</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>1890</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" t="n">
         <v>0.21653518460082</v>
       </c>
+      <c r="D28" t="n">
+        <v>0.857727620593631</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>1890</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29" t="n">
         <v>0.22586387434555</v>
       </c>
+      <c r="D29" t="n">
+        <v>0.894679928703528</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>1890</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30" t="n">
         <v>0.225856008332248</v>
       </c>
+      <c r="D30" t="n">
+        <v>0.894648770271308</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>1890</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31" t="n">
         <v>0.220956529022531</v>
       </c>
+      <c r="D31" t="n">
+        <v>0.875241214228079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>1890</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" t="n">
         <v>0.210829008276056</v>
       </c>
+      <c r="D32" t="n">
+        <v>0.835124619373525</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>1890</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" t="n">
         <v>0.224270163285502</v>
       </c>
+      <c r="D33" t="n">
+        <v>0.888367005480596</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>1890</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" t="n">
         <v>0.223556581986143</v>
       </c>
+      <c r="D34" t="n">
+        <v>0.885540405308769</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>1890</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" t="n">
         <v>0.18449100205857</v>
       </c>
+      <c r="D35" t="n">
+        <v>0.730795914337665</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>1890</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" t="n">
         <v>0.197265750951183</v>
       </c>
+      <c r="D36" t="n">
+        <v>0.781398568089028</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>1890</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" t="n">
         <v>0.210655345611098</v>
       </c>
+      <c r="D37" t="n">
+        <v>0.834436716090395</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>1890</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" t="n">
         <v>0.213875488169079</v>
       </c>
+      <c r="D38" t="n">
+        <v>0.847192172989101</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>1890</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" t="n">
         <v>0.202904109589041</v>
       </c>
+      <c r="D39" t="n">
+        <v>0.803732933505986</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>1890</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" t="n">
         <v>0.226096737907762</v>
       </c>
+      <c r="D40" t="n">
+        <v>0.895602335422358</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>1890</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" t="n">
         <v>0.207564160288158</v>
       </c>
+      <c r="D41" t="n">
+        <v>0.822192077710971</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>1890</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" t="n">
         <v>0.201360141927853</v>
       </c>
+      <c r="D42" t="n">
+        <v>0.797617051180694</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>1890</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" t="n">
         <v>0.198889060330196</v>
       </c>
+      <c r="D43" t="n">
+        <v>0.787828734593906</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>1890</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" t="n">
         <v>0.219376661029234</v>
       </c>
+      <c r="D44" t="n">
+        <v>0.8689831254226</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>1890</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" t="n">
         <v>0.202605107041527</v>
       </c>
+      <c r="D45" t="n">
+        <v>0.802548540567242</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>1890</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" t="n">
         <v>0.227008803146657</v>
       </c>
+      <c r="D46" t="n">
+        <v>0.899215159585904</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>1890</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" t="n">
         <v>0.214486754966887</v>
       </c>
+      <c r="D47" t="n">
+        <v>0.8496134904161</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>1890</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" t="n">
         <v>0.170195439739414</v>
       </c>
+      <c r="D48" t="n">
+        <v>0.674169095579957</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>1890</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" t="n">
         <v>0.203218314532183</v>
       </c>
+      <c r="D49" t="n">
+        <v>0.804977545363208</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>1890</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" t="n">
         <v>0.196075328374743</v>
       </c>
+      <c r="D50" t="n">
+        <v>0.776683129690997</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>1890</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" t="n">
         <v>0.177405119152692</v>
       </c>
+      <c r="D51" t="n">
+        <v>0.702727693018955</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>1890</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52" t="n">
         <v>0.207067310631534</v>
       </c>
+      <c r="D52" t="n">
+        <v>0.820223983359215</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>1890</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53" t="n">
         <v>0.201811125485123</v>
       </c>
+      <c r="D53" t="n">
+        <v>0.799403463186746</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>1890</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54" t="n">
         <v>0.229718309859155</v>
       </c>
+      <c r="D54" t="n">
+        <v>0.909947913017074</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>1890</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C55" t="n">
         <v>0.219811518324607</v>
       </c>
+      <c r="D55" t="n">
+        <v>0.870705658940401</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>1890</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56" t="n">
         <v>0.19245707852519</v>
       </c>
+      <c r="D56" t="n">
+        <v>0.76235071142885</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>1890</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57" t="n">
         <v>0.211709262280225</v>
       </c>
+      <c r="D57" t="n">
+        <v>0.838611434571276</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>1890</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58" t="n">
         <v>0.211484234811587</v>
       </c>
+      <c r="D58" t="n">
+        <v>0.837720067768237</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>1890</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" t="n">
         <v>0.2031708749266</v>
       </c>
+      <c r="D59" t="n">
+        <v>0.804789630128584</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>1890</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60" t="n">
         <v>0.224674880219028</v>
       </c>
+      <c r="D60" t="n">
+        <v>0.889970148605105</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>1890</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61" t="n">
         <v>0.207067757009346</v>
       </c>
+      <c r="D61" t="n">
+        <v>0.820225751527188</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>1890</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C62" t="n">
         <v>0.203395643971874</v>
       </c>
+      <c r="D62" t="n">
+        <v>0.805679973278782</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>1890</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63" t="n">
         <v>0.230864602705758</v>
       </c>
+      <c r="D63" t="n">
+        <v>0.914488547083694</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>1890</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C64" t="n">
         <v>0.224140625</v>
       </c>
+      <c r="D64" t="n">
+        <v>0.887853885335229</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>1890</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C65" t="n">
         <v>0.214513920584208</v>
       </c>
+      <c r="D65" t="n">
+        <v>0.849721097410083</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>1890</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C66" t="n">
         <v>0.207542228623805</v>
       </c>
+      <c r="D66" t="n">
+        <v>0.822105203172239</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>1890</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C67" t="n">
         <v>0.203046922608166</v>
       </c>
+      <c r="D67" t="n">
+        <v>0.804298636817942</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>1890</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C68" t="n">
         <v>0.211188719030047</v>
       </c>
+      <c r="D68" t="n">
+        <v>0.836549486420846</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>1890</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C69" t="n">
         <v>0.198393293747817</v>
       </c>
+      <c r="D69" t="n">
+        <v>0.785864930458067</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>1890</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C70" t="n">
         <v>0.219217266935379</v>
       </c>
+      <c r="D70" t="n">
+        <v>0.86835174204206</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>1890</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C71" t="n">
         <v>0.212371432710416</v>
       </c>
+      <c r="D71" t="n">
+        <v>0.841234388751043</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>1890</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C72" t="n">
         <v>0.184899363854417</v>
       </c>
+      <c r="D72" t="n">
+        <v>0.732413495296338</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>1890</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C73" t="n">
         <v>0.202931901474474</v>
       </c>
+      <c r="D73" t="n">
+        <v>0.803843021239801</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>1890</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C74" t="n">
         <v>0.214004376367615</v>
       </c>
+      <c r="D74" t="n">
+        <v>0.847702718044662</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>1890</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C75" t="n">
         <v>0.227096291446476</v>
       </c>
+      <c r="D75" t="n">
+        <v>0.899561713571448</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>1890</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C76" t="n">
         <v>0.209278768233387</v>
       </c>
+      <c r="D76" t="n">
+        <v>0.828983891225358</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>1890</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C77" t="n">
         <v>0.197038532727579</v>
       </c>
+      <c r="D77" t="n">
+        <v>0.780498523384296</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>1890</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C78" t="n">
         <v>0.188313772235467</v>
       </c>
+      <c r="D78" t="n">
+        <v>0.745938467608861</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>1890</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C79" t="n">
         <v>0.212874141636526</v>
       </c>
+      <c r="D79" t="n">
+        <v>0.843225692528479</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>1890</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C80" t="n">
         <v>0.194766559407443</v>
       </c>
+      <c r="D80" t="n">
+        <v>0.771498903883547</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>1890</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C81" t="n">
         <v>0.205704166278311</v>
       </c>
+      <c r="D81" t="n">
+        <v>0.814824368674097</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>1890</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C82" t="n">
         <v>0.210047397156171</v>
       </c>
+      <c r="D82" t="n">
+        <v>0.832028543106177</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>1890</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C83" t="n">
         <v>0.21841930217089</v>
       </c>
+      <c r="D83" t="n">
+        <v>0.865190886590209</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>1890</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C84" t="n">
         <v>0.211457942306026</v>
       </c>
+      <c r="D84" t="n">
+        <v>0.837615919297977</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>1890</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C85" t="n">
         <v>0.22005444646098</v>
       </c>
+      <c r="D85" t="n">
+        <v>0.871667932913429</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>1890</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C86" t="n">
         <v>0.194980878030279</v>
       </c>
+      <c r="D86" t="n">
+        <v>0.772347851377935</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>1890</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C87" t="n">
         <v>0.206036536934075</v>
       </c>
+      <c r="D87" t="n">
+        <v>0.816140937582973</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>1890</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C88" t="n">
         <v>0.222419297623271</v>
       </c>
+      <c r="D88" t="n">
+        <v>0.881035455167279</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>1890</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C89" t="n">
         <v>0.217113402061856</v>
       </c>
+      <c r="D89" t="n">
+        <v>0.86001802475106</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>1890</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C90" t="n">
         <v>0.207200762994754</v>
       </c>
+      <c r="D90" t="n">
+        <v>0.820752607740415</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>1890</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C91" t="n">
         <v>0.199514489455318</v>
       </c>
+      <c r="D91" t="n">
+        <v>0.790306151076265</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>1890</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C92" t="n">
         <v>0.226697530864198</v>
       </c>
+      <c r="D92" t="n">
+        <v>0.897982164427714</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>1890</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C93" t="n">
         <v>0.209300341296928</v>
       </c>
+      <c r="D93" t="n">
+        <v>0.829069345293684</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>1890</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C94" t="n">
         <v>0.230134058674956</v>
       </c>
+      <c r="D94" t="n">
+        <v>0.911594755045077</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>1890</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C95" t="n">
         <v>0.209302325581395</v>
       </c>
+      <c r="D95" t="n">
+        <v>0.829077205335449</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>1890</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C96" t="n">
         <v>0.216313116223484</v>
       </c>
+      <c r="D96" t="n">
+        <v>0.856847975185181</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>1890</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C97" t="n">
         <v>0.220894371626831</v>
       </c>
+      <c r="D97" t="n">
+        <v>0.874994999668471</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>1890</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C98" t="n">
         <v>0.202958991162745</v>
       </c>
+      <c r="D98" t="n">
+        <v>0.803950327467683</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>1890</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C99" t="n">
         <v>0.197866966039854</v>
       </c>
+      <c r="D99" t="n">
+        <v>0.78378006922207</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>1890</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C100" t="n">
         <v>0.214195765196899</v>
       </c>
+      <c r="D100" t="n">
+        <v>0.848460837264189</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>1890</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C101" t="n">
         <v>0.230551884427836</v>
       </c>
+      <c r="D101" t="n">
+        <v>0.913249824125424</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>1890</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C102" t="n">
         <v>0.231770460851904</v>
       </c>
+      <c r="D102" t="n">
+        <v>0.918076784042604</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>1890</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C103" t="n">
         <v>0.252452153110048</v>
       </c>
+      <c r="D103" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>1890</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C104" t="n">
         <v>0.245161772397818</v>
       </c>
+      <c r="D104" t="n">
+        <v>0.971121732881194</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>1890</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C105" t="n">
         <v>0.238908067207623</v>
       </c>
+      <c r="D105" t="n">
+        <v>0.94634988953126</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>1890</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C106" t="n">
         <v>0.225303770325809</v>
       </c>
+      <c r="D106" t="n">
+        <v>0.892461274543359</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>1890</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C107" t="n">
         <v>0.246138515196811</v>
       </c>
+      <c r="D107" t="n">
+        <v>0.974990754345104</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>1890</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C108" t="n">
         <v>0.246577561765897</v>
       </c>
+      <c r="D108" t="n">
+        <v>0.976729882190429</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>1890</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C109" t="n">
         <v>0.24831417988413</v>
       </c>
+      <c r="D109" t="n">
+        <v>0.983608881227824</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>1890</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C110" t="n">
         <v>0.234267166671919</v>
       </c>
+      <c r="D110" t="n">
+        <v>0.927966601931884</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>1890</v>
       </c>
       <c r="B111" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C111" t="n">
         <v>0.170050715285478</v>
       </c>
+      <c r="D111" t="n">
+        <v>0.673595820794407</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>1890</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C112" t="n">
         <v>0.214247551202137</v>
       </c>
+      <c r="D112" t="n">
+        <v>0.848665969225239</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>1890</v>
       </c>
       <c r="B113" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C113" t="n">
         <v>0.231437400818508</v>
       </c>
+      <c r="D113" t="n">
+        <v>0.916757484407832</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>1890</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C114" t="n">
         <v>0.207363735748868</v>
       </c>
+      <c r="D114" t="n">
+        <v>0.82139816671904</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>1890</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C115" t="n">
         <v>0.192877939529675</v>
       </c>
+      <c r="D115" t="n">
+        <v>0.76401780358592</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>1890</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C116" t="n">
         <v>0.198551782889132</v>
       </c>
+      <c r="D116" t="n">
+        <v>0.786492729188887</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>1890</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C117" t="n">
         <v>0.216296500984422</v>
       </c>
+      <c r="D117" t="n">
+        <v>0.85678215978667</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>1890</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C118" t="n">
         <v>0.22516188109098</v>
       </c>
+      <c r="D118" t="n">
+        <v>0.891899230476473</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>1890</v>
       </c>
       <c r="B119" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C119" t="n">
         <v>0.244340077071291</v>
       </c>
+      <c r="D119" t="n">
+        <v>0.967866877193078</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>1890</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C120" t="n">
         <v>0.234567901234568</v>
       </c>
+      <c r="D120" t="n">
+        <v>0.929157855636573</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>1890</v>
       </c>
       <c r="B121" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C121" t="n">
         <v>0.227657572906867</v>
       </c>
+      <c r="D121" t="n">
+        <v>0.9017850317467</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
         <v>1890</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C122" t="n">
         <v>0.229897463572585</v>
       </c>
+      <c r="D122" t="n">
+        <v>0.910657567148453</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
         <v>1890</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C123" t="n">
         <v>0.207547169811321</v>
       </c>
+      <c r="D123" t="n">
+        <v>0.822124775940602</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
         <v>1890</v>
       </c>
       <c r="B124" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C124" t="n">
         <v>0.189108910891089</v>
       </c>
+      <c r="D124" t="n">
+        <v>0.749088128429047</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
         <v>1890</v>
       </c>
       <c r="B125" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C125" t="n">
         <v>0.211837462003424</v>
       </c>
+      <c r="D125" t="n">
+        <v>0.839119252475065</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
         <v>1890</v>
       </c>
       <c r="B126" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C126" t="n">
         <v>0.231000926784059</v>
       </c>
+      <c r="D126" t="n">
+        <v>0.91502854674946</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
         <v>1890</v>
       </c>
       <c r="B127" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C127" t="n">
         <v>0.222295908216725</v>
       </c>
+      <c r="D127" t="n">
+        <v>0.880546691633178</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
         <v>1890</v>
       </c>
       <c r="B128" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C128" t="n">
         <v>0.214777856973153</v>
       </c>
+      <c r="D128" t="n">
+        <v>0.850766588152361</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
         <v>1890</v>
       </c>
       <c r="B129" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C129" t="n">
         <v>0.198010661425296</v>
       </c>
+      <c r="D129" t="n">
+        <v>0.784349267716404</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
         <v>1890</v>
       </c>
       <c r="B130" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C130" t="n">
         <v>0.214734950584007</v>
       </c>
+      <c r="D130" t="n">
+        <v>0.850596629652831</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
         <v>1918</v>
       </c>
       <c r="B131" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C131" t="n">
         <v>0.226954904099044</v>
       </c>
+      <c r="D131" t="n">
+        <v>0.712797104973003</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
         <v>1918</v>
       </c>
       <c r="B132" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C132" t="n">
         <v>0.231847133757962</v>
       </c>
+      <c r="D132" t="n">
+        <v>0.752189774159102</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
         <v>1918</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C133" t="n">
         <v>0.227061922606018</v>
       </c>
+      <c r="D133" t="n">
+        <v>0.713658827528141</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
         <v>1918</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C134" t="n">
         <v>0.222963644730787</v>
       </c>
+      <c r="D134" t="n">
+        <v>0.680659128857535</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
         <v>1918</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="n">
         <v>0.196450627315868</v>
       </c>
+      <c r="D135" t="n">
+        <v>0.46717394991721</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
         <v>1918</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="n">
         <v>0.262623025864042</v>
       </c>
+      <c r="D136" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
         <v>1918</v>
       </c>
       <c r="B137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C137" t="n">
         <v>0.24696828358209</v>
       </c>
+      <c r="D137" t="n">
+        <v>0.873946620068723</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
         <v>1918</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C138" t="n">
         <v>0.205042886719905</v>
       </c>
+      <c r="D138" t="n">
+        <v>0.536359588340259</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
         <v>1918</v>
       </c>
       <c r="B139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C139" t="n">
         <v>0.202203075580761</v>
       </c>
+      <c r="D139" t="n">
+        <v>0.51349317597726</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
         <v>1918</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C140" t="n">
         <v>0.212905795658235</v>
       </c>
+      <c r="D140" t="n">
+        <v>0.599672431817151</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
         <v>1918</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C141" t="n">
         <v>0.235720091627873</v>
       </c>
+      <c r="D141" t="n">
+        <v>0.783375176067411</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
         <v>1918</v>
       </c>
       <c r="B142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C142" t="n">
         <v>0.198035738644114</v>
       </c>
+      <c r="D142" t="n">
+        <v>0.479937407589911</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
         <v>1918</v>
       </c>
       <c r="B143" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C143" t="n">
         <v>0.194554218960351</v>
       </c>
+      <c r="D143" t="n">
+        <v>0.451903900839593</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
         <v>1918</v>
       </c>
       <c r="B144" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C144" t="n">
         <v>0.186918930651521</v>
       </c>
+      <c r="D144" t="n">
+        <v>0.390423878955917</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
         <v>1918</v>
       </c>
       <c r="B145" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C145" t="n">
         <v>0.202412868632708</v>
       </c>
+      <c r="D145" t="n">
+        <v>0.515182448327303</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
         <v>1918</v>
       </c>
       <c r="B146" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C146" t="n">
         <v>0.197908708938121</v>
       </c>
+      <c r="D146" t="n">
+        <v>0.478914553076963</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
         <v>1918</v>
       </c>
       <c r="B147" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C147" t="n">
         <v>0.19421401907922</v>
       </c>
+      <c r="D147" t="n">
+        <v>0.449164581079716</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
         <v>1918</v>
       </c>
       <c r="B148" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C148" t="n">
         <v>0.248750288394986</v>
       </c>
+      <c r="D148" t="n">
+        <v>0.88829548162605</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
         <v>1918</v>
       </c>
       <c r="B149" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C149" t="n">
         <v>0.214833759590793</v>
       </c>
+      <c r="D149" t="n">
+        <v>0.61519656921318</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
         <v>1918</v>
       </c>
       <c r="B150" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C150" t="n">
         <v>0.226707644599496</v>
       </c>
+      <c r="D150" t="n">
+        <v>0.710806149448038</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
         <v>1918</v>
       </c>
       <c r="B151" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C151" t="n">
         <v>0.205723542116631</v>
       </c>
+      <c r="D151" t="n">
+        <v>0.541840286251498</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
         <v>1918</v>
       </c>
       <c r="B152" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C152" t="n">
         <v>0.220326451686288</v>
       </c>
+      <c r="D152" t="n">
+        <v>0.659424215448989</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
         <v>1918</v>
       </c>
       <c r="B153" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C153" t="n">
         <v>0.172135620760825</v>
       </c>
+      <c r="D153" t="n">
+        <v>0.271387350296996</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
         <v>1918</v>
       </c>
       <c r="B154" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C154" t="n">
         <v>0.205652951699463</v>
       </c>
+      <c r="D154" t="n">
+        <v>0.541271885921781</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
         <v>1918</v>
       </c>
       <c r="B155" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C155" t="n">
         <v>0.228594665844014</v>
       </c>
+      <c r="D155" t="n">
+        <v>0.726000612671352</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
         <v>1918</v>
       </c>
       <c r="B156" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C156" t="n">
         <v>0.232523321432685</v>
       </c>
+      <c r="D156" t="n">
+        <v>0.757634497574635</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
         <v>1918</v>
       </c>
       <c r="B157" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C157" t="n">
         <v>0.21073494750375</v>
       </c>
+      <c r="D157" t="n">
+        <v>0.582192569021456</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
         <v>1918</v>
       </c>
       <c r="B158" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C158" t="n">
         <v>0.223871940610138</v>
       </c>
+      <c r="D158" t="n">
+        <v>0.687972808221126</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
         <v>1918</v>
       </c>
       <c r="B159" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C159" t="n">
         <v>0.217152338483874</v>
       </c>
+      <c r="D159" t="n">
+        <v>0.633865973081117</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
         <v>1918</v>
       </c>
       <c r="B160" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C160" t="n">
         <v>0.201807836649046</v>
       </c>
+      <c r="D160" t="n">
+        <v>0.510310676877252</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
         <v>1918</v>
       </c>
       <c r="B161" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C161" t="n">
         <v>0.193638108669252</v>
       </c>
+      <c r="D161" t="n">
+        <v>0.444527299136226</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
         <v>1918</v>
       </c>
       <c r="B162" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C162" t="n">
         <v>0.200344471236652</v>
       </c>
+      <c r="D162" t="n">
+        <v>0.498527528168414</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
         <v>1918</v>
       </c>
       <c r="B163" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C163" t="n">
         <v>0.21836322303612</v>
       </c>
+      <c r="D163" t="n">
+        <v>0.643616123404137</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
         <v>1918</v>
       </c>
       <c r="B164" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C164" t="n">
         <v>0.230937564111331</v>
       </c>
+      <c r="D164" t="n">
+        <v>0.744865838307866</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
         <v>1918</v>
       </c>
       <c r="B165" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C165" t="n">
         <v>0.167628972963425</v>
       </c>
+      <c r="D165" t="n">
+        <v>0.235099420621075</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
         <v>1918</v>
       </c>
       <c r="B166" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C166" t="n">
         <v>0.199315654405475</v>
       </c>
+      <c r="D166" t="n">
+        <v>0.49024340336046</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
         <v>1918</v>
       </c>
       <c r="B167" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C167" t="n">
         <v>0.214596708729983</v>
       </c>
+      <c r="D167" t="n">
+        <v>0.613287814557082</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
         <v>1918</v>
       </c>
       <c r="B168" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C168" t="n">
         <v>0.210231895850285</v>
       </c>
+      <c r="D168" t="n">
+        <v>0.57814195227816</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
         <v>1918</v>
       </c>
       <c r="B169" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C169" t="n">
         <v>0.207243841316374</v>
       </c>
+      <c r="D169" t="n">
+        <v>0.554081870889748</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
         <v>1918</v>
       </c>
       <c r="B170" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C170" t="n">
         <v>0.232062915910466</v>
       </c>
+      <c r="D170" t="n">
+        <v>0.753927271280555</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
         <v>1918</v>
       </c>
       <c r="B171" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C171" t="n">
         <v>0.20462911685181</v>
       </c>
+      <c r="D171" t="n">
+        <v>0.533027876489128</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
         <v>1918</v>
       </c>
       <c r="B172" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C172" t="n">
         <v>0.193829503127416</v>
       </c>
+      <c r="D172" t="n">
+        <v>0.446068424369534</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
         <v>1918</v>
       </c>
       <c r="B173" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C173" t="n">
         <v>0.192408175810665</v>
       </c>
+      <c r="D173" t="n">
+        <v>0.434623770153055</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
         <v>1918</v>
       </c>
       <c r="B174" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C174" t="n">
         <v>0.197828709288299</v>
       </c>
+      <c r="D174" t="n">
+        <v>0.478270388767408</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
         <v>1918</v>
       </c>
       <c r="B175" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C175" t="n">
         <v>0.179909523257163</v>
       </c>
+      <c r="D175" t="n">
+        <v>0.333983505971128</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
         <v>1918</v>
       </c>
       <c r="B176" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C176" t="n">
         <v>0.218148639681486</v>
       </c>
+      <c r="D176" t="n">
+        <v>0.641888279109966</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
         <v>1918</v>
       </c>
       <c r="B177" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C177" t="n">
         <v>0.199115044247788</v>
       </c>
+      <c r="D177" t="n">
+        <v>0.48862807249333</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
         <v>1918</v>
       </c>
       <c r="B178" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C178" t="n">
         <v>0.138431653205194</v>
       </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
         <v>1918</v>
       </c>
       <c r="B179" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C179" t="n">
         <v>0.201550387596899</v>
       </c>
+      <c r="D179" t="n">
+        <v>0.50823767416672</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
         <v>1918</v>
       </c>
       <c r="B180" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C180" t="n">
         <v>0.170319657193518</v>
       </c>
+      <c r="D180" t="n">
+        <v>0.256765049822907</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
         <v>1918</v>
       </c>
       <c r="B181" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C181" t="n">
         <v>0.15192559765308</v>
       </c>
+      <c r="D181" t="n">
+        <v>0.108654443211238</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
         <v>1918</v>
       </c>
       <c r="B182" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C182" t="n">
         <v>0.218621510495564</v>
       </c>
+      <c r="D182" t="n">
+        <v>0.645695877044939</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
         <v>1918</v>
       </c>
       <c r="B183" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C183" t="n">
         <v>0.184199180857944</v>
       </c>
+      <c r="D183" t="n">
+        <v>0.368524211246722</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
         <v>1918</v>
       </c>
       <c r="B184" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C184" t="n">
         <v>0.213348072405693</v>
       </c>
+      <c r="D184" t="n">
+        <v>0.603233683601303</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
         <v>1918</v>
       </c>
       <c r="B185" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C185" t="n">
         <v>0.218518518518519</v>
       </c>
+      <c r="D185" t="n">
+        <v>0.644866576467611</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
         <v>1918</v>
       </c>
       <c r="B186" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C186" t="n">
         <v>0.237113890468069</v>
       </c>
+      <c r="D186" t="n">
+        <v>0.794598168537469</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
         <v>1918</v>
       </c>
       <c r="B187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C187" t="n">
         <v>0.211200079082641</v>
       </c>
+      <c r="D187" t="n">
+        <v>0.58593784994503</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
         <v>1918</v>
       </c>
       <c r="B188" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C188" t="n">
         <v>0.226912313432836</v>
       </c>
+      <c r="D188" t="n">
+        <v>0.712454161133213</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
         <v>1918</v>
       </c>
       <c r="B189" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C189" t="n">
         <v>0.213316635357963</v>
       </c>
+      <c r="D189" t="n">
+        <v>0.602980549691458</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
         <v>1918</v>
       </c>
       <c r="B190" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C190" t="n">
         <v>0.225556400989157</v>
       </c>
+      <c r="D190" t="n">
+        <v>0.701536233304175</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
         <v>1918</v>
       </c>
       <c r="B191" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C191" t="n">
         <v>0.225401013818485</v>
       </c>
+      <c r="D191" t="n">
+        <v>0.700285041958546</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
         <v>1918</v>
       </c>
       <c r="B192" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C192" t="n">
         <v>0.212838573814538</v>
       </c>
+      <c r="D192" t="n">
+        <v>0.599131155541204</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
         <v>1918</v>
       </c>
       <c r="B193" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C193" t="n">
         <v>0.242675938445689</v>
       </c>
+      <c r="D193" t="n">
+        <v>0.83938427451682</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
         <v>1918</v>
       </c>
       <c r="B194" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C194" t="n">
         <v>0.216676160637995</v>
       </c>
+      <c r="D194" t="n">
+        <v>0.630031746631366</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
         <v>1918</v>
       </c>
       <c r="B195" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C195" t="n">
         <v>0.19245341978829</v>
       </c>
+      <c r="D195" t="n">
+        <v>0.434988078692814</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
         <v>1918</v>
       </c>
       <c r="B196" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C196" t="n">
         <v>0.203526085269169</v>
       </c>
+      <c r="D196" t="n">
+        <v>0.524146167888719</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
         <v>1918</v>
       </c>
       <c r="B197" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C197" t="n">
         <v>0.185855588526212</v>
       </c>
+      <c r="D197" t="n">
+        <v>0.381861753402877</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
         <v>1918</v>
       </c>
       <c r="B198" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C198" t="n">
         <v>0.22535068103273</v>
       </c>
+      <c r="D198" t="n">
+        <v>0.699879757882229</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
         <v>1918</v>
       </c>
       <c r="B199" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C199" t="n">
         <v>0.193588992974239</v>
       </c>
+      <c r="D199" t="n">
+        <v>0.444131815183019</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
         <v>1918</v>
       </c>
       <c r="B200" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C200" t="n">
         <v>0.216486064448966</v>
       </c>
+      <c r="D200" t="n">
+        <v>0.628501075176828</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
         <v>1918</v>
       </c>
       <c r="B201" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C201" t="n">
         <v>0.196692637939259</v>
       </c>
+      <c r="D201" t="n">
+        <v>0.469122641023602</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
         <v>1918</v>
       </c>
       <c r="B202" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C202" t="n">
         <v>0.209726137736609</v>
       </c>
+      <c r="D202" t="n">
+        <v>0.574069542876058</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
         <v>1918</v>
       </c>
       <c r="B203" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C203" t="n">
         <v>0.188049140813312</v>
       </c>
+      <c r="D203" t="n">
+        <v>0.399524431897667</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
         <v>1918</v>
       </c>
       <c r="B204" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C204" t="n">
         <v>0.205084453306237</v>
       </c>
+      <c r="D204" t="n">
+        <v>0.536694286197618</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
         <v>1918</v>
       </c>
       <c r="B205" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C205" t="n">
         <v>0.201540105375631</v>
       </c>
+      <c r="D205" t="n">
+        <v>0.508154880804765</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
         <v>1918</v>
       </c>
       <c r="B206" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C206" t="n">
         <v>0.225381526104418</v>
       </c>
+      <c r="D206" t="n">
+        <v>0.700128125148224</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
         <v>1918</v>
       </c>
       <c r="B207" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C207" t="n">
         <v>0.162722560288483</v>
       </c>
+      <c r="D207" t="n">
+        <v>0.195592548526025</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
         <v>1918</v>
       </c>
       <c r="B208" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C208" t="n">
         <v>0.166466484683045</v>
       </c>
+      <c r="D208" t="n">
+        <v>0.225738961391969</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
         <v>1918</v>
       </c>
       <c r="B209" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C209" t="n">
         <v>0.209522187207223</v>
       </c>
+      <c r="D209" t="n">
+        <v>0.572427315038326</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
         <v>1918</v>
       </c>
       <c r="B210" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C210" t="n">
         <v>0.220591607429489</v>
       </c>
+      <c r="D210" t="n">
+        <v>0.661559273122674</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
         <v>1918</v>
       </c>
       <c r="B211" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C211" t="n">
         <v>0.218691680581475</v>
       </c>
+      <c r="D211" t="n">
+        <v>0.646260892829927</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
         <v>1918</v>
       </c>
       <c r="B212" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C212" t="n">
         <v>0.210338713510154</v>
       </c>
+      <c r="D212" t="n">
+        <v>0.579002057594515</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
         <v>1918</v>
       </c>
       <c r="B213" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C213" t="n">
         <v>0.217793856153044</v>
       </c>
+      <c r="D213" t="n">
+        <v>0.639031530522311</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
         <v>1918</v>
       </c>
       <c r="B214" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C214" t="n">
         <v>0.207181347992093</v>
       </c>
+      <c r="D214" t="n">
+        <v>0.553578669073523</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
         <v>1918</v>
       </c>
       <c r="B215" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C215" t="n">
         <v>0.201996782435885</v>
       </c>
+      <c r="D215" t="n">
+        <v>0.511832085190844</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
         <v>1918</v>
       </c>
       <c r="B216" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C216" t="n">
         <v>0.169246946172088</v>
       </c>
+      <c r="D216" t="n">
+        <v>0.248127485083393</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
         <v>1918</v>
       </c>
       <c r="B217" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C217" t="n">
         <v>0.204653515427415</v>
       </c>
+      <c r="D217" t="n">
+        <v>0.533224335994191</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
         <v>1918</v>
       </c>
       <c r="B218" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C218" t="n">
         <v>0.221937467965146</v>
       </c>
+      <c r="D218" t="n">
+        <v>0.672396262092548</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
         <v>1918</v>
       </c>
       <c r="B219" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C219" t="n">
         <v>0.188386815105872</v>
       </c>
+      <c r="D219" t="n">
+        <v>0.402243415393309</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
         <v>1918</v>
       </c>
       <c r="B220" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C220" t="n">
         <v>0.202266568120227</v>
       </c>
+      <c r="D220" t="n">
+        <v>0.514004423563192</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
         <v>1918</v>
       </c>
       <c r="B221" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C221" t="n">
         <v>0.222207707380797</v>
       </c>
+      <c r="D221" t="n">
+        <v>0.674572253949834</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
         <v>1918</v>
       </c>
       <c r="B222" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C222" t="n">
         <v>0.197099892588614</v>
       </c>
+      <c r="D222" t="n">
+        <v>0.47240189175283</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
         <v>1918</v>
       </c>
       <c r="B223" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C223" t="n">
         <v>0.208833970507919</v>
       </c>
+      <c r="D223" t="n">
+        <v>0.566885732844901</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
         <v>1918</v>
       </c>
       <c r="B224" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C224" t="n">
         <v>0.215839591236355</v>
       </c>
+      <c r="D224" t="n">
+        <v>0.623295615258233</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
         <v>1918</v>
       </c>
       <c r="B225" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C225" t="n">
         <v>0.177206851119895</v>
       </c>
+      <c r="D225" t="n">
+        <v>0.312221349072416</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
         <v>1918</v>
       </c>
       <c r="B226" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C226" t="n">
         <v>0.210718329349604</v>
       </c>
+      <c r="D226" t="n">
+        <v>0.582058758163341</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
         <v>1918</v>
       </c>
       <c r="B227" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C227" t="n">
         <v>0.224547803617571</v>
       </c>
+      <c r="D227" t="n">
+        <v>0.693414917386709</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
         <v>1918</v>
       </c>
       <c r="B228" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C228" t="n">
         <v>0.221552933410347</v>
       </c>
+      <c r="D228" t="n">
+        <v>0.669299955589398</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
         <v>1918</v>
       </c>
       <c r="B229" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C229" t="n">
         <v>0.216300614135526</v>
       </c>
+      <c r="D229" t="n">
+        <v>0.62700781272655</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
         <v>1918</v>
       </c>
       <c r="B230" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C230" t="n">
         <v>0.19680919728759</v>
       </c>
+      <c r="D230" t="n">
+        <v>0.470061187283583</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
         <v>1918</v>
       </c>
       <c r="B231" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C231" t="n">
         <v>0.218118424520079</v>
       </c>
+      <c r="D231" t="n">
+        <v>0.641644983937678</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
         <v>1918</v>
       </c>
       <c r="B232" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C232" t="n">
         <v>0.220686868686869</v>
       </c>
+      <c r="D232" t="n">
+        <v>0.662326325256334</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
         <v>1918</v>
       </c>
       <c r="B233" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C233" t="n">
         <v>0.244867263292472</v>
       </c>
+      <c r="D233" t="n">
+        <v>0.857029017463678</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
         <v>1918</v>
       </c>
       <c r="B234" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C234" t="n">
         <v>0.244126873475078</v>
       </c>
+      <c r="D234" t="n">
+        <v>0.851067332673967</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
         <v>1918</v>
       </c>
       <c r="B235" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C235" t="n">
         <v>0.237821264536304</v>
       </c>
+      <c r="D235" t="n">
+        <v>0.800294007572748</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
         <v>1918</v>
       </c>
       <c r="B236" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C236" t="n">
         <v>0.215130896673833</v>
       </c>
+      <c r="D236" t="n">
+        <v>0.617589143485281</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
         <v>1918</v>
       </c>
       <c r="B237" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C237" t="n">
         <v>0.242554224668177</v>
       </c>
+      <c r="D237" t="n">
+        <v>0.838404224333736</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
         <v>1918</v>
       </c>
       <c r="B238" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C238" t="n">
         <v>0.183384067117084</v>
       </c>
+      <c r="D238" t="n">
+        <v>0.361960842766216</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
         <v>1918</v>
       </c>
       <c r="B239" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C239" t="n">
         <v>0.206764568036244</v>
       </c>
+      <c r="D239" t="n">
+        <v>0.550222719727561</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
         <v>1918</v>
       </c>
       <c r="B240" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C240" t="n">
         <v>0.224398321295001</v>
       </c>
+      <c r="D240" t="n">
+        <v>0.692211272404213</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
         <v>1918</v>
       </c>
       <c r="B241" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C241" t="n">
         <v>0.164011419648232</v>
       </c>
+      <c r="D241" t="n">
+        <v>0.205970558947805</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
         <v>1918</v>
       </c>
       <c r="B242" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C242" t="n">
         <v>0.226467507627852</v>
       </c>
+      <c r="D242" t="n">
+        <v>0.708872545152481</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
         <v>1918</v>
       </c>
       <c r="B243" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C243" t="n">
         <v>0.244228217602831</v>
       </c>
+      <c r="D243" t="n">
+        <v>0.851883364621939</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
         <v>1918</v>
       </c>
       <c r="B244" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C244" t="n">
         <v>0.218628107639573</v>
       </c>
+      <c r="D244" t="n">
+        <v>0.645748997836408</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
         <v>1918</v>
       </c>
       <c r="B245" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C245" t="n">
         <v>0.194977843426883</v>
       </c>
+      <c r="D245" t="n">
+        <v>0.455314962795532</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
         <v>1918</v>
       </c>
       <c r="B246" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C246" t="n">
         <v>0.215490797546012</v>
       </c>
+      <c r="D246" t="n">
+        <v>0.620487097380739</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
         <v>1918</v>
       </c>
       <c r="B247" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C247" t="n">
         <v>0.221517397311895</v>
       </c>
+      <c r="D247" t="n">
+        <v>0.669013815757854</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
         <v>1918</v>
       </c>
       <c r="B248" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C248" t="n">
         <v>0.225433162479167</v>
       </c>
+      <c r="D248" t="n">
+        <v>0.700543905839299</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
         <v>1918</v>
       </c>
       <c r="B249" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C249" t="n">
         <v>0.235060233814017</v>
       </c>
+      <c r="D249" t="n">
+        <v>0.778061942146821</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
         <v>1918</v>
       </c>
       <c r="B250" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C250" t="n">
         <v>0.239947459853396</v>
       </c>
+      <c r="D250" t="n">
+        <v>0.817414321742498</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
         <v>1918</v>
       </c>
       <c r="B251" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C251" t="n">
         <v>0.233039061555206</v>
       </c>
+      <c r="D251" t="n">
+        <v>0.761787283001513</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
         <v>1918</v>
       </c>
       <c r="B252" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C252" t="n">
         <v>0.229197080291971</v>
       </c>
+      <c r="D252" t="n">
+        <v>0.730851307490643</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
         <v>1918</v>
       </c>
       <c r="B253" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C253" t="n">
         <v>0.203443990768685</v>
       </c>
+      <c r="D253" t="n">
+        <v>0.523485135654943</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
         <v>1918</v>
       </c>
       <c r="B254" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C254" t="n">
         <v>0.222358722358722</v>
       </c>
+      <c r="D254" t="n">
+        <v>0.675788240009835</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
         <v>1918</v>
       </c>
       <c r="B255" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C255" t="n">
         <v>0.221213840045377</v>
       </c>
+      <c r="D255" t="n">
+        <v>0.666569545596253</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
         <v>1918</v>
       </c>
       <c r="B256" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C256" t="n">
         <v>0.232325927055147</v>
       </c>
+      <c r="D256" t="n">
+        <v>0.756045060455843</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
         <v>1918</v>
       </c>
       <c r="B257" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C257" t="n">
         <v>0.224064966258721</v>
       </c>
+      <c r="D257" t="n">
+        <v>0.689527067945056</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
         <v>1918</v>
       </c>
       <c r="B258" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C258" t="n">
         <v>0.236819422496768</v>
       </c>
+      <c r="D258" t="n">
+        <v>0.792227086190951</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
         <v>1918</v>
       </c>
       <c r="B259" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C259" t="n">
         <v>0.189267714201008</v>
       </c>
+      <c r="D259" t="n">
+        <v>0.409336493408927</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
         <v>1918</v>
       </c>
       <c r="B260" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C260" t="n">
         <v>0.215987826199573</v>
       </c>
+      <c r="D260" t="n">
+        <v>0.624489216392063</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
         <v>2020</v>
       </c>
       <c r="B261" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C261" t="n">
         <v>0.115231691005369</v>
       </c>
+      <c r="D261" t="n">
+        <v>0.891427839670252</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
         <v>2020</v>
       </c>
       <c r="B262" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C262" t="n">
         <v>0.109262814612208</v>
       </c>
+      <c r="D262" t="n">
+        <v>0.845252846124721</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
         <v>2020</v>
       </c>
       <c r="B263" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C263" t="n">
         <v>0.10595508453192</v>
       </c>
+      <c r="D263" t="n">
+        <v>0.819664376026281</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
         <v>2020</v>
       </c>
       <c r="B264" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C264" t="n">
         <v>0.111975250290036</v>
       </c>
+      <c r="D264" t="n">
+        <v>0.866236142086397</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
         <v>2020</v>
       </c>
       <c r="B265" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C265" t="n">
         <v>0.11628644271542</v>
       </c>
+      <c r="D265" t="n">
+        <v>0.899587357508411</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
         <v>2020</v>
       </c>
       <c r="B266" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C266" t="n">
         <v>0.0945954755851098</v>
       </c>
+      <c r="D266" t="n">
+        <v>0.73178688699002</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
         <v>2020</v>
       </c>
       <c r="B267" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C267" t="n">
         <v>0.104041031098498</v>
       </c>
+      <c r="D267" t="n">
+        <v>0.804857333777033</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
         <v>2020</v>
       </c>
       <c r="B268" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C268" t="n">
         <v>0.106515801794772</v>
       </c>
+      <c r="D268" t="n">
+        <v>0.82400206276791</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
         <v>2020</v>
       </c>
       <c r="B269" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C269" t="n">
         <v>0.0975626580823178</v>
       </c>
+      <c r="D269" t="n">
+        <v>0.754740894349595</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
         <v>2020</v>
       </c>
       <c r="B270" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C270" t="n">
         <v>0.101662004725308</v>
       </c>
+      <c r="D270" t="n">
+        <v>0.786453279112304</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
         <v>2020</v>
       </c>
       <c r="B271" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C271" t="n">
         <v>0.089592433602818</v>
       </c>
+      <c r="D271" t="n">
+        <v>0.693083550545481</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
         <v>2020</v>
       </c>
       <c r="B272" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C272" t="n">
         <v>0.111037279125588</v>
       </c>
+      <c r="D272" t="n">
+        <v>0.858980033966302</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
         <v>2020</v>
       </c>
       <c r="B273" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C273" t="n">
         <v>0.108883010495776</v>
       </c>
+      <c r="D273" t="n">
+        <v>0.842314696384357</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
         <v>2020</v>
       </c>
       <c r="B274" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C274" t="n">
         <v>0.0913609841305237</v>
       </c>
+      <c r="D274" t="n">
+        <v>0.706764988025964</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
         <v>2020</v>
       </c>
       <c r="B275" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C275" t="n">
         <v>0.101148204685737</v>
       </c>
+      <c r="D275" t="n">
+        <v>0.78247854216884</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
         <v>2020</v>
       </c>
       <c r="B276" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C276" t="n">
         <v>0.0892123701377144</v>
       </c>
+      <c r="D276" t="n">
+        <v>0.690143394493973</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
         <v>2020</v>
       </c>
       <c r="B277" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C277" t="n">
         <v>0.102180085546118</v>
       </c>
+      <c r="D277" t="n">
+        <v>0.790461132011453</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
         <v>2020</v>
       </c>
       <c r="B278" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C278" t="n">
         <v>0.0860294117647059</v>
       </c>
+      <c r="D278" t="n">
+        <v>0.665520153426729</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
         <v>2020</v>
       </c>
       <c r="B279" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C279" t="n">
         <v>0.0969647535716051</v>
       </c>
+      <c r="D279" t="n">
+        <v>0.750115528517821</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
         <v>2020</v>
       </c>
       <c r="B280" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C280" t="n">
         <v>0.101042008532983</v>
       </c>
+      <c r="D280" t="n">
+        <v>0.78165701289851</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
         <v>2020</v>
       </c>
       <c r="B281" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C281" t="n">
         <v>0.0998375034261326</v>
       </c>
+      <c r="D281" t="n">
+        <v>0.772339008659366</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
         <v>2020</v>
       </c>
       <c r="B282" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C282" t="n">
         <v>0.0943311506978911</v>
       </c>
+      <c r="D282" t="n">
+        <v>0.729742080035191</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
         <v>2020</v>
       </c>
       <c r="B283" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C283" t="n">
         <v>0.100631212363056</v>
       </c>
+      <c r="D283" t="n">
+        <v>0.778479109848505</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
         <v>2020</v>
       </c>
       <c r="B284" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C284" t="n">
         <v>0.079383719291653</v>
       </c>
+      <c r="D284" t="n">
+        <v>0.614109337246913</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
         <v>2020</v>
       </c>
       <c r="B285" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C285" t="n">
         <v>0.0897696347119476</v>
       </c>
+      <c r="D285" t="n">
+        <v>0.694454371371942</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
         <v>2020</v>
       </c>
       <c r="B286" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C286" t="n">
         <v>0.0771332987796259</v>
       </c>
+      <c r="D286" t="n">
+        <v>0.596700172477366</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
         <v>2020</v>
       </c>
       <c r="B287" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C287" t="n">
         <v>0.0834967131818706</v>
       </c>
+      <c r="D287" t="n">
+        <v>0.645927296578629</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
         <v>2020</v>
       </c>
       <c r="B288" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C288" t="n">
         <v>0.0779256489221293</v>
       </c>
+      <c r="D288" t="n">
+        <v>0.602829762086195</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
         <v>2020</v>
       </c>
       <c r="B289" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C289" t="n">
         <v>0.10007086056216</v>
       </c>
+      <c r="D289" t="n">
+        <v>0.774144250306226</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
         <v>2020</v>
       </c>
       <c r="B290" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C290" t="n">
         <v>0.104165688254356</v>
       </c>
+      <c r="D290" t="n">
+        <v>0.805821676642924</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
         <v>2020</v>
       </c>
       <c r="B291" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C291" t="n">
         <v>0.088724584103512</v>
       </c>
+      <c r="D291" t="n">
+        <v>0.68636990087519</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
         <v>2020</v>
       </c>
       <c r="B292" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C292" t="n">
         <v>0.0964665076956427</v>
       </c>
+      <c r="D292" t="n">
+        <v>0.74626111797365</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
         <v>2020</v>
       </c>
       <c r="B293" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C293" t="n">
         <v>0.0783461633970698</v>
       </c>
+      <c r="D293" t="n">
+        <v>0.606082845562413</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
         <v>2020</v>
       </c>
       <c r="B294" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C294" t="n">
         <v>0.103359395810157</v>
       </c>
+      <c r="D294" t="n">
+        <v>0.799584229935303</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
         <v>2020</v>
       </c>
       <c r="B295" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C295" t="n">
         <v>0.0983570825273138</v>
       </c>
+      <c r="D295" t="n">
+        <v>0.760886530681106</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
         <v>2020</v>
       </c>
       <c r="B296" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C296" t="n">
         <v>0.10174004745584</v>
       </c>
+      <c r="D296" t="n">
+        <v>0.787057014613131</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
         <v>2020</v>
       </c>
       <c r="B297" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C297" t="n">
         <v>0.0905377492050967</v>
       </c>
+      <c r="D297" t="n">
+        <v>0.700396474948426</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
         <v>2020</v>
       </c>
       <c r="B298" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C298" t="n">
         <v>0.095910322739591</v>
       </c>
+      <c r="D298" t="n">
+        <v>0.741958492979566</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
         <v>2020</v>
       </c>
       <c r="B299" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C299" t="n">
         <v>0.0870335573211331</v>
       </c>
+      <c r="D299" t="n">
+        <v>0.673288184046351</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
         <v>2020</v>
       </c>
       <c r="B300" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C300" t="n">
         <v>0.10515873015873</v>
       </c>
+      <c r="D300" t="n">
+        <v>0.813503809845995</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
         <v>2020</v>
       </c>
       <c r="B301" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C301" t="n">
         <v>0.113298791018998</v>
       </c>
+      <c r="D301" t="n">
+        <v>0.876475001226977</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
         <v>2020</v>
       </c>
       <c r="B302" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C302" t="n">
         <v>0.12926642615065</v>
       </c>
+      <c r="D302" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
         <v>2020</v>
       </c>
       <c r="B303" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C303" t="n">
         <v>0.0867696808996983</v>
       </c>
+      <c r="D303" t="n">
+        <v>0.671246846405227</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
         <v>2020</v>
       </c>
       <c r="B304" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C304" t="n">
         <v>0.105867713219106</v>
       </c>
+      <c r="D304" t="n">
+        <v>0.818988474978994</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
         <v>2020</v>
       </c>
       <c r="B305" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C305" t="n">
         <v>0.102294267599189</v>
       </c>
+      <c r="D305" t="n">
+        <v>0.791344439893256</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
         <v>2020</v>
       </c>
       <c r="B306" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C306" t="n">
         <v>0.0993427230046948</v>
       </c>
+      <c r="D306" t="n">
+        <v>0.768511406735406</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
         <v>2020</v>
       </c>
       <c r="B307" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C307" t="n">
         <v>0.0905602923264312</v>
       </c>
+      <c r="D307" t="n">
+        <v>0.700570867650428</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
         <v>2020</v>
       </c>
       <c r="B308" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C308" t="n">
         <v>0.106897046171494</v>
       </c>
+      <c r="D308" t="n">
+        <v>0.826951354305359</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
         <v>2020</v>
       </c>
       <c r="B309" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C309" t="n">
         <v>0.0979998360521354</v>
       </c>
+      <c r="D309" t="n">
+        <v>0.75812288596827</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
         <v>2020</v>
       </c>
       <c r="B310" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C310" t="n">
         <v>0.129246227211178</v>
       </c>
+      <c r="D310" t="n">
+        <v>0.999843741796892</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
         <v>2020</v>
       </c>
       <c r="B311" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C311" t="n">
         <v>0.112265937807188</v>
       </c>
+      <c r="D311" t="n">
+        <v>0.868484889311864</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
         <v>2020</v>
       </c>
       <c r="B312" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C312" t="n">
         <v>0.106615717315081</v>
       </c>
+      <c r="D312" t="n">
+        <v>0.824775005312117</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
         <v>2020</v>
       </c>
       <c r="B313" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C313" t="n">
         <v>0.107186484192219</v>
       </c>
+      <c r="D313" t="n">
+        <v>0.829190435475499</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
         <v>2020</v>
       </c>
       <c r="B314" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C314" t="n">
         <v>0.0980241042879397</v>
       </c>
+      <c r="D314" t="n">
+        <v>0.758310624088112</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
         <v>2020</v>
       </c>
       <c r="B315" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C315" t="n">
         <v>0.108181182009034</v>
       </c>
+      <c r="D315" t="n">
+        <v>0.836885378752225</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
         <v>2020</v>
       </c>
       <c r="B316" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C316" t="n">
         <v>0.124843945068664</v>
       </c>
+      <c r="D316" t="n">
+        <v>0.965787859897726</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
         <v>2020</v>
       </c>
       <c r="B317" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C317" t="n">
         <v>0.108522764616959</v>
       </c>
+      <c r="D317" t="n">
+        <v>0.839527848402677</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
         <v>2020</v>
       </c>
       <c r="B318" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C318" t="n">
         <v>0.0995510213676218</v>
       </c>
+      <c r="D318" t="n">
+        <v>0.770122794696919</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
         <v>2020</v>
       </c>
       <c r="B319" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C319" t="n">
         <v>0.113030270919431</v>
       </c>
+      <c r="D319" t="n">
+        <v>0.874397740274046</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
         <v>2020</v>
       </c>
       <c r="B320" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C320" t="n">
         <v>0.126390129068918</v>
       </c>
+      <c r="D320" t="n">
+        <v>0.977749078647998</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
         <v>2020</v>
       </c>
       <c r="B321" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C321" t="n">
         <v>0.122632651659148</v>
       </c>
+      <c r="D321" t="n">
+        <v>0.948681380857767</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
         <v>2020</v>
       </c>
       <c r="B322" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C322" t="n">
         <v>0.119731858353875</v>
       </c>
+      <c r="D322" t="n">
+        <v>0.926240957681743</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
         <v>2020</v>
       </c>
       <c r="B323" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C323" t="n">
         <v>0.105681612844937</v>
       </c>
+      <c r="D323" t="n">
+        <v>0.817548809787412</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
         <v>2020</v>
       </c>
       <c r="B324" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C324" t="n">
         <v>0.108224811514736</v>
       </c>
+      <c r="D324" t="n">
+        <v>0.837222894896221</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
         <v>2020</v>
       </c>
       <c r="B325" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C325" t="n">
         <v>0.113189019334003</v>
       </c>
+      <c r="D325" t="n">
+        <v>0.875625811779534</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
         <v>2020</v>
       </c>
       <c r="B326" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C326" t="n">
         <v>0.0878163231104408</v>
       </c>
+      <c r="D326" t="n">
+        <v>0.679343629474968</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
         <v>2020</v>
       </c>
       <c r="B327" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C327" t="n">
         <v>0.104747111930881</v>
       </c>
+      <c r="D327" t="n">
+        <v>0.810319547388163</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
         <v>2020</v>
       </c>
       <c r="B328" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C328" t="n">
         <v>0.088097413690358</v>
       </c>
+      <c r="D328" t="n">
+        <v>0.681518135170589</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
         <v>2020</v>
       </c>
       <c r="B329" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C329" t="n">
         <v>0.0947196516058792</v>
       </c>
+      <c r="D329" t="n">
+        <v>0.732747507813749</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
         <v>2020</v>
       </c>
       <c r="B330" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C330" t="n">
         <v>0.082598273457941</v>
       </c>
+      <c r="D330" t="n">
+        <v>0.638977002131078</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
         <v>2020</v>
       </c>
       <c r="B331" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C331" t="n">
         <v>0.0819362717886089</v>
       </c>
+      <c r="D331" t="n">
+        <v>0.633855783195539</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
         <v>2020</v>
       </c>
       <c r="B332" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C332" t="n">
         <v>0.087310003534818</v>
       </c>
+      <c r="D332" t="n">
+        <v>0.675426761107053</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
         <v>2020</v>
       </c>
       <c r="B333" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C333" t="n">
         <v>0.100493229306789</v>
       </c>
+      <c r="D333" t="n">
+        <v>0.777411678339983</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
         <v>2020</v>
       </c>
       <c r="B334" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C334" t="n">
         <v>0.103957030187653</v>
       </c>
+      <c r="D334" t="n">
+        <v>0.804207506027116</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
         <v>2020</v>
       </c>
       <c r="B335" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C335" t="n">
         <v>0.105899692141678</v>
       </c>
+      <c r="D335" t="n">
+        <v>0.81923586266909</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
         <v>2020</v>
       </c>
       <c r="B336" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C336" t="n">
         <v>0.0972234235792751</v>
       </c>
+      <c r="D336" t="n">
+        <v>0.752116589546372</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
         <v>2020</v>
       </c>
       <c r="B337" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C337" t="n">
         <v>0.0899576775300841</v>
       </c>
+      <c r="D337" t="n">
+        <v>0.695909063233829</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
         <v>2020</v>
       </c>
       <c r="B338" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C338" t="n">
         <v>0.103332600087989</v>
       </c>
+      <c r="D338" t="n">
+        <v>0.799376939280142</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
         <v>2020</v>
       </c>
       <c r="B339" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C339" t="n">
         <v>0.105426374664094</v>
       </c>
+      <c r="D339" t="n">
+        <v>0.815574297236526</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
         <v>2020</v>
       </c>
       <c r="B340" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C340" t="n">
         <v>0.10766420120967</v>
       </c>
+      <c r="D340" t="n">
+        <v>0.832886035575824</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
         <v>2020</v>
       </c>
       <c r="B341" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C341" t="n">
         <v>0.0972906403940887</v>
       </c>
+      <c r="D341" t="n">
+        <v>0.752636576188032</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
         <v>2020</v>
       </c>
       <c r="B342" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C342" t="n">
         <v>0.10124211971787</v>
       </c>
+      <c r="D342" t="n">
+        <v>0.783205065171989</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
         <v>2020</v>
       </c>
       <c r="B343" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C343" t="n">
         <v>0.0932265112891479</v>
       </c>
+      <c r="D343" t="n">
+        <v>0.721196632917655</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
         <v>2020</v>
       </c>
       <c r="B344" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C344" t="n">
         <v>0.0872111483506791</v>
       </c>
+      <c r="D344" t="n">
+        <v>0.674662021281852</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
         <v>2020</v>
       </c>
       <c r="B345" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C345" t="n">
         <v>0.107565836352317</v>
       </c>
+      <c r="D345" t="n">
+        <v>0.832125088899396</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
         <v>2020</v>
       </c>
       <c r="B346" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C346" t="n">
         <v>0.0950599893136445</v>
       </c>
+      <c r="D346" t="n">
+        <v>0.735380346965415</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
         <v>2020</v>
       </c>
       <c r="B347" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C347" t="n">
         <v>0.0976146788990826</v>
       </c>
+      <c r="D347" t="n">
+        <v>0.755143325346675</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
         <v>2020</v>
       </c>
       <c r="B348" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C348" t="n">
         <v>0.103764770541358</v>
       </c>
+      <c r="D348" t="n">
+        <v>0.802720192948069</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
         <v>2020</v>
       </c>
       <c r="B349" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C349" t="n">
         <v>0.0889705649377396</v>
       </c>
+      <c r="D349" t="n">
+        <v>0.688272798955941</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
         <v>2020</v>
       </c>
       <c r="B350" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C350" t="n">
         <v>0.0989680398319936</v>
       </c>
+      <c r="D350" t="n">
+        <v>0.765612872414788</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
         <v>2020</v>
       </c>
       <c r="B351" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C351" t="n">
         <v>0.100106087623863</v>
       </c>
+      <c r="D351" t="n">
+        <v>0.774416765473168</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
         <v>2020</v>
       </c>
       <c r="B352" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C352" t="n">
         <v>0.109033765815134</v>
       </c>
+      <c r="D352" t="n">
+        <v>0.843480933618938</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
         <v>2020</v>
       </c>
       <c r="B353" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C353" t="n">
         <v>0.100937326379554</v>
       </c>
+      <c r="D353" t="n">
+        <v>0.780847195867544</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
         <v>2020</v>
       </c>
       <c r="B354" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C354" t="n">
         <v>0.0985428088974129</v>
       </c>
+      <c r="D354" t="n">
+        <v>0.762323302591878</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
         <v>2020</v>
       </c>
       <c r="B355" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C355" t="n">
         <v>0.0866363636363636</v>
       </c>
+      <c r="D355" t="n">
+        <v>0.670215509287735</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
         <v>2020</v>
       </c>
       <c r="B356" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C356" t="n">
         <v>0.105813322814457</v>
       </c>
+      <c r="D356" t="n">
+        <v>0.818567712943029</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
         <v>2020</v>
       </c>
       <c r="B357" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C357" t="n">
         <v>0.0952980479170302</v>
       </c>
+      <c r="D357" t="n">
+        <v>0.737221958979259</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
         <v>2020</v>
       </c>
       <c r="B358" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C358" t="n">
         <v>0.113540312093628</v>
       </c>
+      <c r="D358" t="n">
+        <v>0.87834339878249</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
         <v>2020</v>
       </c>
       <c r="B359" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C359" t="n">
         <v>0.106488381368207</v>
       </c>
+      <c r="D359" t="n">
+        <v>0.823789939424042</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
         <v>2020</v>
       </c>
       <c r="B360" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C360" t="n">
         <v>0.10802752293578</v>
       </c>
+      <c r="D360" t="n">
+        <v>0.835696678191456</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
         <v>2020</v>
       </c>
       <c r="B361" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C361" t="n">
         <v>0.10754575557179</v>
       </c>
+      <c r="D361" t="n">
+        <v>0.831969744769255</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
         <v>2020</v>
       </c>
       <c r="B362" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C362" t="n">
         <v>0.100146132066855</v>
       </c>
+      <c r="D362" t="n">
+        <v>0.774726547712725</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
         <v>2020</v>
       </c>
       <c r="B363" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C363" t="n">
         <v>0.0983576942026605</v>
       </c>
+      <c r="D363" t="n">
+        <v>0.760891262577585</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
         <v>2020</v>
       </c>
       <c r="B364" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C364" t="n">
         <v>0.0831705729166667</v>
       </c>
+      <c r="D364" t="n">
+        <v>0.643404288285479</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
         <v>2020</v>
       </c>
       <c r="B365" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C365" t="n">
         <v>0.104340801044029</v>
       </c>
+      <c r="D365" t="n">
+        <v>0.807176342312024</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
         <v>2020</v>
       </c>
       <c r="B366" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C366" t="n">
         <v>0.101060758031671</v>
       </c>
+      <c r="D366" t="n">
+        <v>0.781802058284584</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
         <v>2020</v>
       </c>
       <c r="B367" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C367" t="n">
         <v>0.0989427488529823</v>
       </c>
+      <c r="D367" t="n">
+        <v>0.765417222393631</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
         <v>2020</v>
       </c>
       <c r="B368" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C368" t="n">
         <v>0.0948872180451128</v>
       </c>
+      <c r="D368" t="n">
+        <v>0.734043795211981</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
         <v>2020</v>
       </c>
       <c r="B369" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C369" t="n">
         <v>0.100625503482917</v>
       </c>
+      <c r="D369" t="n">
+        <v>0.77843494617578</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
         <v>2020</v>
       </c>
       <c r="B370" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C370" t="n">
         <v>0.0961671904975713</v>
       </c>
+      <c r="D370" t="n">
+        <v>0.743945611875241</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
         <v>2020</v>
       </c>
       <c r="B371" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C371" t="n">
         <v>0.108126115407496</v>
       </c>
+      <c r="D371" t="n">
+        <v>0.836459385683662</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
         <v>2020</v>
       </c>
       <c r="B372" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C372" t="n">
         <v>0.0873949579831933</v>
       </c>
+      <c r="D372" t="n">
+        <v>0.676083965385884</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
         <v>2020</v>
       </c>
       <c r="B373" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C373" t="n">
         <v>0.10289165863716</v>
       </c>
+      <c r="D373" t="n">
+        <v>0.795965833520042</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
         <v>2020</v>
       </c>
       <c r="B374" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C374" t="n">
         <v>0.104634397528321</v>
       </c>
+      <c r="D374" t="n">
+        <v>0.809447593193129</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
         <v>2020</v>
       </c>
       <c r="B375" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C375" t="n">
         <v>0.080146553698191</v>
       </c>
+      <c r="D375" t="n">
+        <v>0.620010594280576</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
         <v>2020</v>
       </c>
       <c r="B376" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C376" t="n">
         <v>0.0769561478933792</v>
       </c>
+      <c r="D376" t="n">
+        <v>0.595329740173156</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
         <v>2020</v>
       </c>
       <c r="B377" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C377" t="n">
         <v>0.102022205173487</v>
       </c>
+      <c r="D377" t="n">
+        <v>0.789239775644355</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
         <v>2020</v>
       </c>
       <c r="B378" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C378" t="n">
         <v>0.0966720476840929</v>
       </c>
+      <c r="D378" t="n">
+        <v>0.747851167258455</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
         <v>2020</v>
       </c>
       <c r="B379" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C379" t="n">
         <v>0.104037760231292</v>
       </c>
+      <c r="D379" t="n">
+        <v>0.804832030476684</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
         <v>2020</v>
       </c>
       <c r="B380" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C380" t="n">
         <v>0.103235687559373</v>
       </c>
+      <c r="D380" t="n">
+        <v>0.798627227761825</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
         <v>2020</v>
       </c>
       <c r="B381" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C381" t="n">
         <v>0.100742641626813</v>
       </c>
+      <c r="D381" t="n">
+        <v>0.779341122260197</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
         <v>2020</v>
       </c>
       <c r="B382" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C382" t="n">
         <v>0.0971975746820467</v>
       </c>
+      <c r="D382" t="n">
+        <v>0.751916623491781</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
         <v>2020</v>
       </c>
       <c r="B383" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C383" t="n">
         <v>0.107141943243174</v>
       </c>
+      <c r="D383" t="n">
+        <v>0.828845868441571</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
         <v>2020</v>
       </c>
       <c r="B384" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C384" t="n">
         <v>0.105183746021248</v>
       </c>
+      <c r="D384" t="n">
+        <v>0.813697331576752</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
         <v>2020</v>
       </c>
       <c r="B385" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C385" t="n">
         <v>0.0975957177715038</v>
       </c>
+      <c r="D385" t="n">
+        <v>0.754996642807802</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
         <v>2020</v>
       </c>
       <c r="B386" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C386" t="n">
         <v>0.0998120038991784</v>
       </c>
+      <c r="D386" t="n">
+        <v>0.772141745319507</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
         <v>2020</v>
       </c>
       <c r="B387" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C387" t="n">
         <v>0.110060598369238</v>
       </c>
+      <c r="D387" t="n">
+        <v>0.851424469962294</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
         <v>2020</v>
       </c>
       <c r="B388" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C388" t="n">
         <v>0.116951974231841</v>
       </c>
+      <c r="D388" t="n">
+        <v>0.904735883202512</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
         <v>2020</v>
       </c>
       <c r="B389" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C389" t="n">
         <v>0.101109290306315</v>
       </c>
+      <c r="D389" t="n">
+        <v>0.782177502056721</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
         <v>2020</v>
       </c>
       <c r="B390" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C390" t="n">
+        <v>0</v>
+      </c>
+      <c r="D390" t="n">
         <v>0</v>
       </c>
     </row>
